--- a/Task 11- Web Scrapping using BeautifulSoup and Selenium/Top_100_IMDB_Movies.xlsx
+++ b/Task 11- Web Scrapping using BeautifulSoup and Selenium/Top_100_IMDB_Movies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H201"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4470,4006 +4470,6 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>The Shawshank Redemption</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>1994</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>9.3</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>2,757,520</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>$28.34M</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>The Godfather</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>1972</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>9.2</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>1,918,786</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>$134.97M</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>The Dark Knight</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>9.0</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>2,730,483</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>$534.86M</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Schindler's List</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>1993</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>195</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>9.0</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>1,389,742</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>$96.90M</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>12 Angry Men</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>1957</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>9.0</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>816,962</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>$4.36M</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>The Godfather Part II</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>1974</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>202</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>9.0</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>1,306,003</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>$57.30M</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>The Lord of the Rings: The Return of the King</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>2003</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>201</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>9.0</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>1,893,527</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>$377.85M</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Spider-Man: Across the Spider-Verse</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>8.9</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>156,086</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>#12</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Pulp Fiction</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>1994</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>154</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>8.9</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>2,117,324</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>$107.93M</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Inception</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>148</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>8.8</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>2,423,103</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>$292.58M</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>The Lord of the Rings: The Fellowship of the Ring</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>178</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>8.8</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>1,921,996</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>$315.54M</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Fight Club</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>1999</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>139</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>8.8</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>2,195,590</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>$37.03M</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Forrest Gump</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>1994</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>8.8</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>2,144,858</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>$330.25M</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Il buono, il brutto, il cattivo</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>1966</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>161</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>8.8</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>779,850</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>$6.10M</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>The Lord of the Rings: The Two Towers</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>2002</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>179</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>8.8</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>1,708,876</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>$342.55M</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Jai Bhim</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>164</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>8.8</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>^^^^^^</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>207,537</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>#219</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>777 Charlie</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>136</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>8.8</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>^^^^^^</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>35,253</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>*****</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Rocketry: The Nambi Effect</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>157</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>8.8</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>^^^^^^</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>53,909</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>*****</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Interstellar</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>169</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>8.7</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>1,924,633</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>$188.02M</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>GoodFellas</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>1990</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>145</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>8.7</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>1,196,771</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>$46.84M</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>The Matrix</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>1999</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>136</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>8.7</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>1,965,114</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>$171.48M</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>One Flew Over the Cuckoo's Nest</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>1975</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>133</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>8.7</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>1,031,782</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>$112.00M</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Star Wars: Episode V - The Empire Strikes Back</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>1980</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>124</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>8.7</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>1,325,853</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>$290.48M</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Soorarai Pottru</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>153</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>8.7</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>^^^^^^</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>119,799</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>*****</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>The Green Mile</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>1999</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>189</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>8.6</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>1,340,745</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>$136.80M</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Terminator 2: Judgment Day</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>1991</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>8.6</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>1,127,389</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>$204.84M</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Se7en</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>127</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>8.6</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>1,704,879</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>$100.13M</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>The Silence of the Lambs</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>1991</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>118</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>8.6</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>1,472,898</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>$130.74M</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Saving Private Ryan</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>1998</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>169</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>8.6</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>1,428,512</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>$216.54M</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Star Wars</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>1977</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>8.6</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>1,398,106</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>$322.74M</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Sen to Chihiro no kamikakushi</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>125</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>8.6</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>794,315</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>$10.06M</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Cidade de Deus</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>2002</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>130</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>8.6</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>773,161</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>$7.56M</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>La vita è bella</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>1997</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>8.6</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>713,410</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>$57.60M</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Shichinin no samurai</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>1954</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>207</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>8.6</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>353,901</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>$0.27M</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>It's a Wonderful Life</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>1946</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>130</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>8.6</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>473,580</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>#21</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Seppuku</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>1962</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>133</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>8.6</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>61,533</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>#46</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Sita Ramam</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>8.6</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>^^^^^^</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>60,821</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>*****</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Back to the Future</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>1985</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>1,244,399</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>$210.61M</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>The Departed</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>1,361,260</t>
-        </is>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>$132.38M</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Alien</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>1979</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>117</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>906,581</t>
-        </is>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>$78.90M</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Gladiator</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>155</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>1,541,396</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>$187.71M</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>Gisaengchung</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>132</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>861,780</t>
-        </is>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>$53.37M</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>Whiplash</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>910,581</t>
-        </is>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>$13.09M</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>The Prestige</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>130</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>1,369,458</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>$53.09M</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Léon</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>1994</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>1,193,614</t>
-        </is>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>$19.50M</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Casablanca</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>1942</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>585,393</t>
-        </is>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>$1.02M</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>American History X</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>1998</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>119</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>1,146,373</t>
-        </is>
-      </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>$6.72M</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>The Lion King</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>1994</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>1,089,951</t>
-        </is>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>$422.78M</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>The Usual Suspects</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>1,107,359</t>
-        </is>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>$23.34M</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>The Pianist</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>2002</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>859,846</t>
-        </is>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>$32.57M</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>Psycho</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>1960</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>690,035</t>
-        </is>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>$32.00M</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>The Intouchables</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>112</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>884,760</t>
-        </is>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>$13.18M</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Once Upon a Time in the West</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>1968</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>165</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>338,083</t>
-        </is>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>$5.32M</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Hotaru no haka</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>1988</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>288,945</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>#45</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Rear Window</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>1954</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>112</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>503,357</t>
-        </is>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>$36.76M</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Nuovo Cinema Paradiso</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>1988</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>155</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>269,447</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>$11.99M</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Modern Times</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>1936</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>249,166</t>
-        </is>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>$0.16M</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>City Lights</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>1931</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>189,092</t>
-        </is>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>$0.02M</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>II 2018</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>158</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>^^^^^^</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>33,342</t>
-        </is>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>*****</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>Spider-Man: Into the Spider-Verse</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>117</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>597,929</t>
-        </is>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>$190.24M</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Raiders of the Lost Ark</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>1981</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>115</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>993,645</t>
-        </is>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>$248.16M</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>Avengers: Endgame</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>181</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>1,188,217</t>
-        </is>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>$858.37M</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Django Unchained</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>165</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>1,606,544</t>
-        </is>
-      </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>$162.81M</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>Joker</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>I 2019</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>122</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>1,363,873</t>
-        </is>
-      </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>$335.45M</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Aliens</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>1986</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>734,728</t>
-        </is>
-      </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>$85.16M</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>The Shining</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>1980</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>146</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>1,053,303</t>
-        </is>
-      </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>$44.02M</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>Apocalypse Now</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>1979</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>147</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>684,198</t>
-        </is>
-      </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>$83.47M</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>Oldeuboi</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>2003</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>598,874</t>
-        </is>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>$0.71M</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>The Dark Knight Rises</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>164</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>1,748,044</t>
-        </is>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>$448.14M</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>Avengers: Infinity War</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>149</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>1,131,003</t>
-        </is>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>$678.82M</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>Memento</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>113</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t>1,267,568</t>
-        </is>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>$25.54M</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>Amadeus</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>1984</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>410,967</t>
-        </is>
-      </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>$51.97M</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>Coco</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>I 2017</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>539,010</t>
-        </is>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>$209.73M</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>Idi i smotri</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>1985</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>^^^^^^</t>
-        </is>
-      </c>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>86,773</t>
-        </is>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>#91</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>WALL·E</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>1,147,862</t>
-        </is>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>$223.81M</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>Kimi no na wa.</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>289,492</t>
-        </is>
-      </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>$5.02M</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>Das Boot</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>1981</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>149</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t>256,303</t>
-        </is>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>$11.49M</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>The Lives of Others</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>397,571</t>
-        </is>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>$11.29M</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>Dr. Strangelove or: How I Learned to Stop Worrying and Love the Bomb</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>1964</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>501,637</t>
-        </is>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>$0.28M</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>Capharnaüm</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>126</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>95,962</t>
-        </is>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>$1.66M</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>Sunset Blvd.</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>1950</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>227,687</t>
-        </is>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>#60</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>3 Idiots</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t>412,304</t>
-        </is>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>$6.53M</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>Paths of Glory</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>1957</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="G184" t="inlineStr">
-        <is>
-          <t>202,871</t>
-        </is>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>#61</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>Witness for the Prosecution</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>1957</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>130,066</t>
-        </is>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>$8.18M</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>The Great Dictator</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>1940</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>125</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>^^^^^^</t>
-        </is>
-      </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>229,379</t>
-        </is>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>$0.29M</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>Tengoku to jigoku</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>1963</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>48,153</t>
-        </is>
-      </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>#86</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>Kaithi</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>145</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>^^^^^^</t>
-        </is>
-      </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>36,499</t>
-        </is>
-      </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>*****</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>Sardar Udham</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>164</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>^^^^^^</t>
-        </is>
-      </c>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>44,350</t>
-        </is>
-      </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>*****</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>Asuran</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>141</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>^^^^^^</t>
-        </is>
-      </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>31,375</t>
-        </is>
-      </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>*****</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>Drishyam 2</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>^^^^^^</t>
-        </is>
-      </c>
-      <c r="G191" t="inlineStr">
-        <is>
-          <t>39,162</t>
-        </is>
-      </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>*****</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>Top Gun: Maverick</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>130</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="G192" t="inlineStr">
-        <is>
-          <t>600,743</t>
-        </is>
-      </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>$718.73M</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>Heat</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>680,131</t>
-        </is>
-      </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>$67.44M</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>Inglourious Basterds</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>153</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="G194" t="inlineStr">
-        <is>
-          <t>1,498,213</t>
-        </is>
-      </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>$120.54M</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>To Kill a Mockingbird</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>1962</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>129</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="G195" t="inlineStr">
-        <is>
-          <t>323,067</t>
-        </is>
-      </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>#112</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>Requiem for a Dream</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="G196" t="inlineStr">
-        <is>
-          <t>864,225</t>
-        </is>
-      </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>$3.64M</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>Scarface</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>1983</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>869,792</t>
-        </is>
-      </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>$45.60M</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>American Beauty</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>1999</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>122</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>1,176,057</t>
-        </is>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>$130.10M</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>Good Will Hunting</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>1997</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>126</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>1,007,788</t>
-        </is>
-      </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>$138.43M</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>Up</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="G200" t="inlineStr">
-        <is>
-          <t>1,074,168</t>
-        </is>
-      </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>$293.00M</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>A Clockwork Orange</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>1971</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>136</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="G201" t="inlineStr">
-        <is>
-          <t>850,349</t>
-        </is>
-      </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>$6.21M</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Task 11- Web Scrapping using BeautifulSoup and Selenium/Top_100_IMDB_Movies.xlsx
+++ b/Task 11- Web Scrapping using BeautifulSoup and Selenium/Top_100_IMDB_Movies.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2,757,520</t>
+          <t>2,757,535</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1,918,786</t>
+          <t>1,918,798</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2,730,483</t>
+          <t>2,730,498</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1,389,742</t>
+          <t>1,389,748</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -661,7 +661,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>816,962</t>
+          <t>816,966</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1,306,003</t>
+          <t>1,306,012</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -741,7 +741,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1,893,527</t>
+          <t>1,893,539</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>156,086</t>
+          <t>156,233</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2,117,324</t>
+          <t>2,117,330</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2,423,103</t>
+          <t>2,423,109</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1,921,996</t>
+          <t>1,922,004</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2,195,590</t>
+          <t>2,195,599</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2,144,858</t>
+          <t>2,144,869</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>779,850</t>
+          <t>779,857</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1,708,876</t>
+          <t>1,708,882</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>207,537</t>
+          <t>207,540</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>35,253</t>
+          <t>35,256</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>53,909</t>
+          <t>53,911</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1,924,633</t>
+          <t>1,924,655</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1,196,771</t>
+          <t>1,196,779</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1,965,114</t>
+          <t>1,965,127</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1,031,782</t>
+          <t>1,031,787</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1,325,853</t>
+          <t>1,325,858</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1,340,745</t>
+          <t>1,340,751</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1,127,389</t>
+          <t>1,127,397</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1,704,879</t>
+          <t>1,704,889</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1,472,898</t>
+          <t>1,472,902</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1,428,512</t>
+          <t>1,428,516</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1,398,106</t>
+          <t>1,398,111</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>794,315</t>
+          <t>794,320</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>773,161</t>
+          <t>773,166</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>713,410</t>
+          <t>713,414</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>473,580</t>
+          <t>473,582</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>61,533</t>
+          <t>61,536</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>60,821</t>
+          <t>60,826</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1,244,399</t>
+          <t>1,244,408</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>1,361,260</t>
+          <t>1,361,271</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2061,7 +2061,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>906,581</t>
+          <t>906,585</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2101,7 +2101,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>1,541,396</t>
+          <t>1,541,399</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>861,780</t>
+          <t>861,790</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2181,7 +2181,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>910,581</t>
+          <t>910,593</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>1,369,458</t>
+          <t>1,369,465</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1,193,614</t>
+          <t>1,193,621</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2301,7 +2301,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>585,393</t>
+          <t>585,395</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2341,7 +2341,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1,146,373</t>
+          <t>1,146,380</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1,089,951</t>
+          <t>1,089,961</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1,107,359</t>
+          <t>1,107,362</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>859,846</t>
+          <t>859,850</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>690,035</t>
+          <t>690,039</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2541,7 +2541,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>884,760</t>
+          <t>884,766</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2581,7 +2581,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>338,083</t>
+          <t>338,086</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2621,7 +2621,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>288,945</t>
+          <t>288,948</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>503,357</t>
+          <t>503,359</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -2701,7 +2701,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>269,447</t>
+          <t>269,449</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>249,166</t>
+          <t>249,167</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>33,342</t>
+          <t>33,343</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -2861,7 +2861,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>597,929</t>
+          <t>597,956</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>993,645</t>
+          <t>993,670</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>1,188,217</t>
+          <t>1,188,223</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>1,606,544</t>
+          <t>1,606,549</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3021,7 +3021,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>1,363,873</t>
+          <t>1,363,879</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>734,728</t>
+          <t>734,730</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3101,7 +3101,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>1,053,303</t>
+          <t>1,053,311</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3141,7 +3141,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>684,198</t>
+          <t>684,200</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3181,7 +3181,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>598,874</t>
+          <t>598,878</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3221,7 +3221,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>1,748,044</t>
+          <t>1,748,048</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3261,7 +3261,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>1,131,003</t>
+          <t>1,131,007</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3301,7 +3301,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>1,267,568</t>
+          <t>1,267,578</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3341,7 +3341,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>410,967</t>
+          <t>410,971</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3381,7 +3381,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>539,010</t>
+          <t>539,018</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>86,773</t>
+          <t>86,775</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3461,7 +3461,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>1,147,862</t>
+          <t>1,147,873</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>289,492</t>
+          <t>289,493</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>256,303</t>
+          <t>256,304</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>397,571</t>
+          <t>397,573</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -3621,7 +3621,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>501,637</t>
+          <t>501,639</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -3661,7 +3661,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>95,962</t>
+          <t>95,964</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -3701,7 +3701,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>227,687</t>
+          <t>227,688</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>412,304</t>
+          <t>412,305</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -3781,7 +3781,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>202,871</t>
+          <t>202,874</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -3821,7 +3821,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>130,066</t>
+          <t>130,068</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>48,153</t>
+          <t>48,156</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -3941,7 +3941,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>36,499</t>
+          <t>36,500</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4101,7 +4101,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>600,743</t>
+          <t>600,763</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4141,7 +4141,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>680,131</t>
+          <t>680,135</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4181,7 +4181,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>1,498,213</t>
+          <t>1,498,222</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4221,7 +4221,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>323,067</t>
+          <t>323,069</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>864,225</t>
+          <t>864,229</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>869,792</t>
+          <t>869,800</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -4341,7 +4341,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>1,176,057</t>
+          <t>1,176,064</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -4381,7 +4381,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>1,007,788</t>
+          <t>1,007,795</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -4421,7 +4421,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>1,074,168</t>
+          <t>1,074,184</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -4461,7 +4461,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>850,349</t>
+          <t>850,353</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
